--- a/tech_L3.xlsx
+++ b/tech_L3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>uid</t>
   </si>
@@ -45,9 +45,6 @@
     <t>rationale</t>
   </si>
   <si>
-    <t>debris disk sensitivity</t>
-  </si>
-  <si>
     <t>The science bandpass shall extend from 600-750 nm</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>MIssion-03, SCI-02</t>
+  </si>
+  <si>
+    <t>IWA</t>
+  </si>
+  <si>
+    <t>OWA</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -520,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -537,71 +540,71 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -609,19 +612,19 @@
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
